--- a/Unit1_LanguageLearning.xlsx
+++ b/Unit1_LanguageLearning.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\hacknao1500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A0FE25-898C-4197-8E89-164D712DAEA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E8FC7B-AB42-49F4-861A-EAEC8065B137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F127A81C-0CDA-47A1-A21E-353820032B32}"/>
+    <workbookView xWindow="20685" yWindow="375" windowWidth="8925" windowHeight="11055" firstSheet="7" activeTab="9" xr2:uid="{F127A81C-0CDA-47A1-A21E-353820032B32}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unit1" sheetId="1" r:id="rId1"/>
-    <sheet name="Unit2" sheetId="4" r:id="rId2"/>
-    <sheet name="Unit3" sheetId="5" r:id="rId3"/>
+    <sheet name="Unit1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Unit2" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="Unit3" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Unit4" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="Unit5" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="Unit6" sheetId="8" r:id="rId6"/>
+    <sheet name="Unit7" sheetId="9" r:id="rId7"/>
+    <sheet name="Unit8" sheetId="10" r:id="rId8"/>
+    <sheet name="Unit9" sheetId="11" r:id="rId9"/>
+    <sheet name="Unit10" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="824">
   <si>
     <t>No.</t>
   </si>
@@ -71,9 +78,6 @@
     <t>My nephew decided to study abroad in Australia</t>
   </si>
   <si>
-    <t>language learning</t>
-  </si>
-  <si>
     <t>Unit Code:</t>
   </si>
   <si>
@@ -284,9 +288,6 @@
     <t>Viện bảo tàng đã chào đón 1000 khách tham quan trong tháng một.</t>
   </si>
   <si>
-    <t>school life</t>
-  </si>
-  <si>
     <t>Mẫu giáo</t>
   </si>
   <si>
@@ -608,9 +609,6 @@
     <t>favourite</t>
   </si>
   <si>
-    <t>spel</t>
-  </si>
-  <si>
     <t>live</t>
   </si>
   <si>
@@ -803,9 +801,6 @@
     <t>Xin hãy ký tên ở đây để xác nhận tôi đã giao món hàng này cho bạn.</t>
   </si>
   <si>
-    <t>My mum calls me her "little sun"</t>
-  </si>
-  <si>
     <t>He got his nickname from his habit of never taking a nap</t>
   </si>
   <si>
@@ -851,18 +846,12 @@
     <t>I don't know anybody in town</t>
   </si>
   <si>
-    <t>Can you describe you dream job for me?</t>
-  </si>
-  <si>
     <t>Football is the most common sport in Vietname</t>
   </si>
   <si>
     <t>What country is the South Pole in?</t>
   </si>
   <si>
-    <t>I keep in concact with my family via Facebook</t>
-  </si>
-  <si>
     <t>Please sign here to confirm I have delivered your item to you</t>
   </si>
   <si>
@@ -873,6 +862,1712 @@
   </si>
   <si>
     <t>I will love you no matter the distance</t>
+  </si>
+  <si>
+    <t>spell</t>
+  </si>
+  <si>
+    <t>My mom calls me her "little sun"</t>
+  </si>
+  <si>
+    <t>Can you describe your dream job for me?</t>
+  </si>
+  <si>
+    <t>I keep in contact with my family via Facebook</t>
+  </si>
+  <si>
+    <t>hn1500u004</t>
+  </si>
+  <si>
+    <t>Jobs &amp; Work life 1</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Acceptable</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Salesperson</t>
+  </si>
+  <si>
+    <t>Housewife</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>Hairdresser</t>
+  </si>
+  <si>
+    <t>Journalist</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>Offer</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Punctual</t>
+  </si>
+  <si>
+    <t>Challenging</t>
+  </si>
+  <si>
+    <t>Mở</t>
+  </si>
+  <si>
+    <t>Người chủ</t>
+  </si>
+  <si>
+    <t>Người làm bếp</t>
+  </si>
+  <si>
+    <t>Chấp nhận được</t>
+  </si>
+  <si>
+    <t>Luật sư</t>
+  </si>
+  <si>
+    <t>Kiến trúc sư</t>
+  </si>
+  <si>
+    <t>Kỹ sư</t>
+  </si>
+  <si>
+    <t>Người quản lý</t>
+  </si>
+  <si>
+    <t>Mẫu đơn</t>
+  </si>
+  <si>
+    <t>trợ lý</t>
+  </si>
+  <si>
+    <t>phi công</t>
+  </si>
+  <si>
+    <t>người bán hàng</t>
+  </si>
+  <si>
+    <t>bà nội trợ</t>
+  </si>
+  <si>
+    <t>lễ tân</t>
+  </si>
+  <si>
+    <t>thợ làm tóc</t>
+  </si>
+  <si>
+    <t>nhà báo</t>
+  </si>
+  <si>
+    <t>kế toán</t>
+  </si>
+  <si>
+    <t>đề xuất</t>
+  </si>
+  <si>
+    <t>nhà tuyển dụng</t>
+  </si>
+  <si>
+    <t>thiết kế</t>
+  </si>
+  <si>
+    <t>nhân viên</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>công ty</t>
+  </si>
+  <si>
+    <t>đúng giờ</t>
+  </si>
+  <si>
+    <t>mang tính thách thức</t>
+  </si>
+  <si>
+    <t>dead-end job</t>
+  </si>
+  <si>
+    <t>show up for work</t>
+  </si>
+  <si>
+    <t>work long hours</t>
+  </si>
+  <si>
+    <t>be responsible for</t>
+  </si>
+  <si>
+    <t>well-paid job</t>
+  </si>
+  <si>
+    <t>work to tight deadlines</t>
+  </si>
+  <si>
+    <t>Công việc không có cơ hội thăng tiến</t>
+  </si>
+  <si>
+    <t>Có mặt ở chỗ làm</t>
+  </si>
+  <si>
+    <t>Làm ca dài</t>
+  </si>
+  <si>
+    <t>chịu trách nhiệm cho (việc gì)</t>
+  </si>
+  <si>
+    <t>việc trả lương cao</t>
+  </si>
+  <si>
+    <t>làm việc với hạn chót gấp rút</t>
+  </si>
+  <si>
+    <t>Có một quán cà phê mới sắp mở cạnh trường.</t>
+  </si>
+  <si>
+    <t>Tôi là chủ của một nhà hàng ý ở cầu giấy.</t>
+  </si>
+  <si>
+    <t>Em cảm thấy mình như làm bếp chính trong nhà vậy.</t>
+  </si>
+  <si>
+    <t>Thái độ thiếu tông trọng của em là không thể chấp nhận được.</t>
+  </si>
+  <si>
+    <t>Vị luận sư đã chứng minh được sự vô tội của thân chủ mình</t>
+  </si>
+  <si>
+    <t>Con bé muốn trở thành một kiến trúc sư khi lớn lên, như bố vậy.</t>
+  </si>
+  <si>
+    <t>Gustave Effel là một kỹ sư xậy dựng nổi tiếng.</t>
+  </si>
+  <si>
+    <t>Mình chả thích người quản lý của quán lẩu Pan kia đâu.</t>
+  </si>
+  <si>
+    <t>Việc xin học bổng yêu cầu điền vào rất nhiều mẫu đơn.</t>
+  </si>
+  <si>
+    <t>Tôi không nói tiếng Anh bởi có trợ lý của tôi dịch rồi.</t>
+  </si>
+  <si>
+    <t>Hẳn là tuyệt lắm khi làm một phi công và được bay lượn trên không trung.</t>
+  </si>
+  <si>
+    <t>Một người bán hàng thường phải giỏi ăn nói.</t>
+  </si>
+  <si>
+    <t>Bạn tôi ước mơ được làm bà nội trợ trong một gia đình nhỏ.</t>
+  </si>
+  <si>
+    <t>Xin hãy để lễ tân giúp bạn làm thủ tục nhận phòng.</t>
+  </si>
+  <si>
+    <t>Cậu có biết thợ làm tóc giỏi nào mà có thể uốn tóc cho tớ không?</t>
+  </si>
+  <si>
+    <t>Công ty đó là một nhà tuyển dụng có tiếng trong thị trường việc làm.</t>
+  </si>
+  <si>
+    <t>Cậu có thể thiết kế một căn hộ mới cho mình không?</t>
+  </si>
+  <si>
+    <t>Một quản lý tốt chăm sóc mọi nhân viên của mình.</t>
+  </si>
+  <si>
+    <t>Sản phẩm của công ty ấy được sản xuất tại Việt Nam.</t>
+  </si>
+  <si>
+    <t>Việc đúng giờ ở các công ty Hàn Quốc và Nhật Bản là rất quan trọng.</t>
+  </si>
+  <si>
+    <t>Mình yêu những công việc mang tính thách thức, đó là lý do tại sao mình làm bác sĩ.</t>
+  </si>
+  <si>
+    <t>Làm một kế toán, tôi làm việc với các con số hằng ngày.</t>
+  </si>
+  <si>
+    <t>Bạn thân mình là một nhà báo ở kênh13.</t>
+  </si>
+  <si>
+    <t>Chị sẽ đề xuất cho em một thỏa thuận em không thể từ chối.</t>
+  </si>
+  <si>
+    <t>He was in a dead end job with hope of promotion.</t>
+  </si>
+  <si>
+    <t>Công việc anh ta đang lâm vào ngõ cụt, không có cơ hội thăng tiến.</t>
+  </si>
+  <si>
+    <t>Nhưng họ phải làm việc nhiều giờ đôi khi 12 giờ một ngày.</t>
+  </si>
+  <si>
+    <t>But they work long hours, sometimes 12 hours a day</t>
+  </si>
+  <si>
+    <t>You must be reponsible for you mistake.</t>
+  </si>
+  <si>
+    <t>Bạn phải chịu trách nhiệm với lỗi lầm của bạn.</t>
+  </si>
+  <si>
+    <t>That is a well paid job</t>
+  </si>
+  <si>
+    <t>Đó là công việc được trả lương cao.</t>
+  </si>
+  <si>
+    <t>Journalists have to work to tight deadlines</t>
+  </si>
+  <si>
+    <t>Các nhà báo phải làm việc theo những thời gian giới hạn.</t>
+  </si>
+  <si>
+    <t>A new cafe is about to open next to the school</t>
+  </si>
+  <si>
+    <t>I'm the owner of an Italian restaurant in Cau Giay</t>
+  </si>
+  <si>
+    <t>I feel like the cook in my boy friend's house</t>
+  </si>
+  <si>
+    <t>Your disrespectful attitude is not acceptable</t>
+  </si>
+  <si>
+    <t>The lawyer helped us make sure that I did not go to jail</t>
+  </si>
+  <si>
+    <t>She wants to become an architect when she grows up, like her mum</t>
+  </si>
+  <si>
+    <t>Gustave Effel is a famous Civil engineer</t>
+  </si>
+  <si>
+    <t>I don't like the manager of that Pan Hotpot restaurant!</t>
+  </si>
+  <si>
+    <t>Applying for a scholarship requires filling out many forms</t>
+  </si>
+  <si>
+    <t>I don't speak English because my assistant usually translates for me.</t>
+  </si>
+  <si>
+    <t>It must feel great to be a pilot and fly in the air.</t>
+  </si>
+  <si>
+    <t>A salesperson typicaly has to be very good at talking.</t>
+  </si>
+  <si>
+    <t>My friend dreams of being a housewife in a small family</t>
+  </si>
+  <si>
+    <t>Please let the receptionist help you check in</t>
+  </si>
+  <si>
+    <t>Do you know a good hairdresser who can curl my hair?</t>
+  </si>
+  <si>
+    <t>My mum is a journalist at kenh13</t>
+  </si>
+  <si>
+    <t>As an accountant, I work with numbers all day.</t>
+  </si>
+  <si>
+    <t>I'll offer you a deal you can't refuse</t>
+  </si>
+  <si>
+    <t>That company is a well-known employer in the job market</t>
+  </si>
+  <si>
+    <t>Could you design a new flat for me?</t>
+  </si>
+  <si>
+    <t>A good manager takes care of every empoyee</t>
+  </si>
+  <si>
+    <t>The products of that company were made in Vietnam</t>
+  </si>
+  <si>
+    <t>It 's very important to be punctual in Korean an Japanese companies</t>
+  </si>
+  <si>
+    <t>I love work that is challenging, so that's why I'm a doctor</t>
+  </si>
+  <si>
+    <t>hn1500u005</t>
+  </si>
+  <si>
+    <t>Jobs &amp; Work life 2</t>
+  </si>
+  <si>
+    <t>Jobless</t>
+  </si>
+  <si>
+    <t>Thất nghiệp</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Đơn xin</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Cặp đựng tài liệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>I keep all my important papers in one file</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Buổi phỏng vấn</t>
+  </si>
+  <si>
+    <t>Most jobs require at lest a interview</t>
+  </si>
+  <si>
+    <t>Career</t>
+  </si>
+  <si>
+    <t>sự nghiệp</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo has an impressive career</t>
+  </si>
+  <si>
+    <t>Secretary</t>
+  </si>
+  <si>
+    <t>Thư ký</t>
+  </si>
+  <si>
+    <t>Bank teller</t>
+  </si>
+  <si>
+    <t>Giao dịch viên ngân hàng</t>
+  </si>
+  <si>
+    <t>Filmmaker</t>
+  </si>
+  <si>
+    <t>Nhà làm phim</t>
+  </si>
+  <si>
+    <t>The talented filmmaker spent lots of time in Ninh Binh.</t>
+  </si>
+  <si>
+    <t>Musician</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ</t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>Phóng viên</t>
+  </si>
+  <si>
+    <t>When I first became a reporter, I was so nervous.</t>
+  </si>
+  <si>
+    <t>Photographer</t>
+  </si>
+  <si>
+    <t>Nhiếp ảnh gia</t>
+  </si>
+  <si>
+    <t>A nature photographer would usually travel a lot.</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Tài liệu</t>
+  </si>
+  <si>
+    <t>This document has the answers to the test.</t>
+  </si>
+  <si>
+    <t>Prepare</t>
+  </si>
+  <si>
+    <t>Chuẩn bị</t>
+  </si>
+  <si>
+    <t>It only takes me about an hour to prepare for any trip.</t>
+  </si>
+  <si>
+    <t>Arrange</t>
+  </si>
+  <si>
+    <t>Sắp xếp</t>
+  </si>
+  <si>
+    <t>Qualified</t>
+  </si>
+  <si>
+    <t>Đủ khả năng</t>
+  </si>
+  <si>
+    <t>Are you sure he is qualified to be a swimming teacher?</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Remember this the custommers are always right.</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Nhà thiết kế</t>
+  </si>
+  <si>
+    <t>As a modern designer. She uses teachnology to create art.</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>công cụ</t>
+  </si>
+  <si>
+    <t>Photoshop is a great tool to edit photos.</t>
+  </si>
+  <si>
+    <t>The secretary opened the door, similed. And asked me to sign some papers</t>
+  </si>
+  <si>
+    <t>The bank teller asked to see my ID</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Chuyên gia</t>
+  </si>
+  <si>
+    <t>After studying for three years, she became an expert in the field.</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Y tá</t>
+  </si>
+  <si>
+    <t>My son wants to be a nurse when he grows up.</t>
+  </si>
+  <si>
+    <t>Builder</t>
+  </si>
+  <si>
+    <t>Thợ xây</t>
+  </si>
+  <si>
+    <t>The builder worked all day to complete the house.</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Có việc làm</t>
+  </si>
+  <si>
+    <t>All I want after graduation is to be employed</t>
+  </si>
+  <si>
+    <t>Freelancer</t>
+  </si>
+  <si>
+    <t>Người hành nghề tự do</t>
+  </si>
+  <si>
+    <t>She worked online as a freelancer.</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Hợp đồng</t>
+  </si>
+  <si>
+    <t>Please read the contract, and let me know if it is okay.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have been jobless since the day I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aduated</t>
+    </r>
+  </si>
+  <si>
+    <t>Filling in the application to look for a job is a hard work in itself</t>
+  </si>
+  <si>
+    <t>Hầu hết công việc yêu cầu ít nhất một buổi phỏng vấn.</t>
+  </si>
+  <si>
+    <t>Thư ký đã mở cửa, mỉn cười. Và yêu cầu tôi ký vào một vài tờ giấy.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He's a fantanstic musician who can play the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">drums, flute, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and guitar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tài liệu này có những đáp án bài kiểm tra.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can you arrange the papers on your desk more </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>neatly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Photoshop là một công cụ tuyệt vời để chỉnh sửa hình ảnh.</t>
+  </si>
+  <si>
+    <t>Con trai tôi muốn trở thành y tá khi anh ấy lớn lên.</t>
+  </si>
+  <si>
+    <t>Người thợ xây đã làm việc cả ngày để hoàn tất ngôi nhà.</t>
+  </si>
+  <si>
+    <t>Tôi đã thất nghiệp từ ngày ra trường.</t>
+  </si>
+  <si>
+    <t>Điền vào  đơn xin để vốn là một công việc vất vả.</t>
+  </si>
+  <si>
+    <t>Tôi giữ tất cả những tờ giấy quan trọng trong một cặp đựng tài liệu</t>
+  </si>
+  <si>
+    <t>Cristano Ronaldo có một sự nghiệp ấn tượng.</t>
+  </si>
+  <si>
+    <t>Giao dịch viên ngân hàng yêu cầu xem CMND của tôi.</t>
+  </si>
+  <si>
+    <t>Nhà làm phim tài năng đã dành nhiều thời gian ở Ninh Bình.</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ hâm mộ của anh ấy là  người có thể chơi trống, sáo , và ghi ta.</t>
+  </si>
+  <si>
+    <t>Hồi tôi mới là phóng viên tôi vô cùng lo lắng.</t>
+  </si>
+  <si>
+    <t>Một nhiếp ảnh gia thiên nhiên sẽ thường hay đi đây đi đó.</t>
+  </si>
+  <si>
+    <t>Chỉ tốn khoảng 1 giờ để mình chuẩn bị cho bất cứ chuyến đi nào.</t>
+  </si>
+  <si>
+    <t>Có thể sắp xếp những tờ giấy trong cái bàn của bạn ngăn nắp hơn được không?</t>
+  </si>
+  <si>
+    <t>Bạn có chắc anh ấy có đủ khả năng để trở thành một giáo viên bơi lội không đấy?</t>
+  </si>
+  <si>
+    <t>Hãy nhớ điều này khách hàng luôn luôn đúng.</t>
+  </si>
+  <si>
+    <t>Là một nhà thiết kế hiện đại. Cô ấy sử dụng công nghệ để sáng tạo nghệ thuật.</t>
+  </si>
+  <si>
+    <t>Sau khi học ba năm, cô ấy trở thành một chuyên gia trên lĩnh vực đó.</t>
+  </si>
+  <si>
+    <t>Tất cả những gì tôi muốn sau khi tốt nghiệp là có việc làm.</t>
+  </si>
+  <si>
+    <t>Cô đã làm việc online với tư cách là  một người hành nghề tự do</t>
+  </si>
+  <si>
+    <t>Hãy đọc hợp đồng, và cho tôi biết nó có ổn không.</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>get a job</t>
+  </si>
+  <si>
+    <t>apply for a job</t>
+  </si>
+  <si>
+    <t>musical instrument</t>
+  </si>
+  <si>
+    <t>job application</t>
+  </si>
+  <si>
+    <t>pass a job interview</t>
+  </si>
+  <si>
+    <t>work under pressure</t>
+  </si>
+  <si>
+    <t>Kiếm được việc làm</t>
+  </si>
+  <si>
+    <t>Ứng tuyển cho một công việc</t>
+  </si>
+  <si>
+    <t>Nhạc cụ</t>
+  </si>
+  <si>
+    <t>Làm việc dưới áp lực</t>
+  </si>
+  <si>
+    <t>Vượt qua buổi phỏng vấn xin việc</t>
+  </si>
+  <si>
+    <t>Đơn xin việc</t>
+  </si>
+  <si>
+    <t>hn1500u006</t>
+  </si>
+  <si>
+    <t>Money and Spending</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>giàu</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>rẻ</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>giá tiền</t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>tiền thuê nhà</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>đắt</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>quản lý</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>tiêu tiền</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>tiết kiệm</t>
+  </si>
+  <si>
+    <t>Wasteful</t>
+  </si>
+  <si>
+    <t>phí phạm</t>
+  </si>
+  <si>
+    <t>Borrow</t>
+  </si>
+  <si>
+    <t>mượn</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>lệ phí</t>
+  </si>
+  <si>
+    <t>Owe</t>
+  </si>
+  <si>
+    <t>nợ</t>
+  </si>
+  <si>
+    <t>Broke</t>
+  </si>
+  <si>
+    <t>cháy túi</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>chi phí</t>
+  </si>
+  <si>
+    <t>Lend</t>
+  </si>
+  <si>
+    <t>cho vay</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>tờ tiền</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>khoản chi tiêu</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>đến hạn</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Hóa đơn</t>
+  </si>
+  <si>
+    <t>Reasonable</t>
+  </si>
+  <si>
+    <t>phải chăng</t>
+  </si>
+  <si>
+    <t>Luxury</t>
+  </si>
+  <si>
+    <t>điều xa hoa</t>
+  </si>
+  <si>
+    <t>Generous</t>
+  </si>
+  <si>
+    <t>hào phóng</t>
+  </si>
+  <si>
+    <t>Raise</t>
+  </si>
+  <si>
+    <t>tăng</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>giảm</t>
+  </si>
+  <si>
+    <t>School life</t>
+  </si>
+  <si>
+    <t>Language learning</t>
+  </si>
+  <si>
+    <t>run short of money</t>
+  </si>
+  <si>
+    <t>cost of living</t>
+  </si>
+  <si>
+    <t>pay rent and bills</t>
+  </si>
+  <si>
+    <t>run out of money</t>
+  </si>
+  <si>
+    <t>be paid on time</t>
+  </si>
+  <si>
+    <t>in big trouble</t>
+  </si>
+  <si>
+    <t>thiếu tiền</t>
+  </si>
+  <si>
+    <t>chi phí sinh hoạt</t>
+  </si>
+  <si>
+    <t>trả tiền thuê nhà và hóa đơn</t>
+  </si>
+  <si>
+    <t>hết tiền</t>
+  </si>
+  <si>
+    <t>được trả đúng hạn</t>
+  </si>
+  <si>
+    <t>gặp rắc rối to</t>
+  </si>
+  <si>
+    <t>hn1500u007</t>
+  </si>
+  <si>
+    <t>In the city</t>
+  </si>
+  <si>
+    <t>Exciting</t>
+  </si>
+  <si>
+    <t>gây hứng thú</t>
+  </si>
+  <si>
+    <t>Skyscraper</t>
+  </si>
+  <si>
+    <t>nhà trọc trời</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>Bầu không khí</t>
+  </si>
+  <si>
+    <t>Nightlife</t>
+  </si>
+  <si>
+    <t>cuộc sông về đêm</t>
+  </si>
+  <si>
+    <t>Lively</t>
+  </si>
+  <si>
+    <t>sống động</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>hiện đại</t>
+  </si>
+  <si>
+    <t>đa dạng</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>dịch vụ</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>hệ thống</t>
+  </si>
+  <si>
+    <t>Pavement</t>
+  </si>
+  <si>
+    <t>vỉa hè</t>
+  </si>
+  <si>
+    <t>Alley</t>
+  </si>
+  <si>
+    <t>ngõ</t>
+  </si>
+  <si>
+    <t>Neighbourhood</t>
+  </si>
+  <si>
+    <t>Khu dân cư</t>
+  </si>
+  <si>
+    <t>Bustling</t>
+  </si>
+  <si>
+    <t>Náo nhiệt</t>
+  </si>
+  <si>
+    <t>Appealing</t>
+  </si>
+  <si>
+    <t>Thu hút</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>quận</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>chất lượng</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Ở giữa</t>
+  </si>
+  <si>
+    <t>Nightclub</t>
+  </si>
+  <si>
+    <t>hộp đêm</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>tòa tháp</t>
+  </si>
+  <si>
+    <t>Opportunity</t>
+  </si>
+  <si>
+    <t>cơ hội</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>thuận lợi</t>
+  </si>
+  <si>
+    <t>Highway</t>
+  </si>
+  <si>
+    <t>đường cao tốc</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>quảng trường</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>thủ đô</t>
+  </si>
+  <si>
+    <t>Get used to (something)</t>
+  </si>
+  <si>
+    <t>quen dần với (cái gì)</t>
+  </si>
+  <si>
+    <t>pace of life</t>
+  </si>
+  <si>
+    <t>Nhịp sống</t>
+  </si>
+  <si>
+    <t>quality of life</t>
+  </si>
+  <si>
+    <t>chất lượng cuộc sống</t>
+  </si>
+  <si>
+    <t>put up with (something)</t>
+  </si>
+  <si>
+    <t>chịu đựng (điều gì)</t>
+  </si>
+  <si>
+    <t>entertainment options</t>
+  </si>
+  <si>
+    <t>các lựa chọn giải trí</t>
+  </si>
+  <si>
+    <t>metro system</t>
+  </si>
+  <si>
+    <t>hệ thống tài điện ngầm</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>hn1500u008</t>
+  </si>
+  <si>
+    <t>pricey</t>
+  </si>
+  <si>
+    <t>đắt đỏ</t>
+  </si>
+  <si>
+    <t>rubbish</t>
+  </si>
+  <si>
+    <t>rác</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>ném</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>cơ sở</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>dân số</t>
+  </si>
+  <si>
+    <t>Lack</t>
+  </si>
+  <si>
+    <t>thiếu</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>xây</t>
+  </si>
+  <si>
+    <t>Selfish</t>
+  </si>
+  <si>
+    <t>ích kỷ</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Chổ trống</t>
+  </si>
+  <si>
+    <t>Unhealthy</t>
+  </si>
+  <si>
+    <t>không tốt cho sức khỏe</t>
+  </si>
+  <si>
+    <t>Pollution</t>
+  </si>
+  <si>
+    <t>ô nhiễm</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>tội</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>hằng ngày</t>
+  </si>
+  <si>
+    <t>Pickpocket</t>
+  </si>
+  <si>
+    <t>kẻ móc túi</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>an ninh</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>Cây cầu</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>nhu cầu</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>nghèo</t>
+  </si>
+  <si>
+    <t>Affordable</t>
+  </si>
+  <si>
+    <t>vừa túi tiền</t>
+  </si>
+  <si>
+    <t>Scam</t>
+  </si>
+  <si>
+    <t>vụ lừa tiền</t>
+  </si>
+  <si>
+    <t>Overpopulated</t>
+  </si>
+  <si>
+    <t>quả tải dân số</t>
+  </si>
+  <si>
+    <t>Beggar</t>
+  </si>
+  <si>
+    <t>người ăn xin</t>
+  </si>
+  <si>
+    <t>Accommodation</t>
+  </si>
+  <si>
+    <t>Chỗ ở</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> phương tiện giao thông</t>
+  </si>
+  <si>
+    <t>hn1500u009</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Nơi</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>tòa nhà</t>
+  </si>
+  <si>
+    <t>Balcony</t>
+  </si>
+  <si>
+    <t>ban công</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>hướng về</t>
+  </si>
+  <si>
+    <t>một cách đẹp đẽ</t>
+  </si>
+  <si>
+    <t>Decorate</t>
+  </si>
+  <si>
+    <t>Trang trí</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>đồ nội thất</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>căn hộ</t>
+  </si>
+  <si>
+    <t>Fully</t>
+  </si>
+  <si>
+    <t>hoàn toàn</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>chuyến xe</t>
+  </si>
+  <si>
+    <t>Away</t>
+  </si>
+  <si>
+    <t>cách đây</t>
+  </si>
+  <si>
+    <t>Housemate</t>
+  </si>
+  <si>
+    <t>bạn cùng nhà</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>khung cảnh</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>ánh sáng</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>thoải mái</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>chia sẻ</t>
+  </si>
+  <si>
+    <t>Rug</t>
+  </si>
+  <si>
+    <t>tấm thảm</t>
+  </si>
+  <si>
+    <t>Roommate</t>
+  </si>
+  <si>
+    <t>bạn cùng phòng</t>
+  </si>
+  <si>
+    <t>Carpet</t>
+  </si>
+  <si>
+    <t>thảm lót sàn</t>
+  </si>
+  <si>
+    <t>Antique</t>
+  </si>
+  <si>
+    <t>đồ cổ</t>
+  </si>
+  <si>
+    <t>Cramped</t>
+  </si>
+  <si>
+    <t>Chật chội</t>
+  </si>
+  <si>
+    <t>Curtain</t>
+  </si>
+  <si>
+    <t>rèm cửa</t>
+  </si>
+  <si>
+    <t>Air conditioner</t>
+  </si>
+  <si>
+    <t>máy điều hòa</t>
+  </si>
+  <si>
+    <t>Bookshelf</t>
+  </si>
+  <si>
+    <t>giá sách</t>
+  </si>
+  <si>
+    <t>Inform</t>
+  </si>
+  <si>
+    <t>báo tin</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>khối nhà</t>
+  </si>
+  <si>
+    <t>Develop</t>
+  </si>
+  <si>
+    <t>phát triển</t>
+  </si>
+  <si>
+    <t>Safe</t>
+  </si>
+  <si>
+    <t>an toàn</t>
+  </si>
+  <si>
+    <t>Vibrant</t>
+  </si>
+  <si>
+    <t>sôi động</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>khu vực</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>thân thiện</t>
+  </si>
+  <si>
+    <t>Invite</t>
+  </si>
+  <si>
+    <t>mời</t>
+  </si>
+  <si>
+    <t>One-way</t>
+  </si>
+  <si>
+    <t>một chiều</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>phòng khám</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>mặt đất</t>
+  </si>
+  <si>
+    <t>Complicated</t>
+  </si>
+  <si>
+    <t>phức tạp</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>phòng tập thể hình</t>
+  </si>
+  <si>
+    <t>Chilled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thư giãn </t>
+  </si>
+  <si>
+    <t>Noisy</t>
+  </si>
+  <si>
+    <t>ồn</t>
+  </si>
+  <si>
+    <t>Vibe</t>
+  </si>
+  <si>
+    <t>bầu không khí</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>luôn luôn</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Comfy</t>
+  </si>
+  <si>
+    <t>dễ chịu</t>
+  </si>
+  <si>
+    <t>Cosy</t>
+  </si>
+  <si>
+    <t>ấm cúng</t>
+  </si>
+  <si>
+    <t>Playground</t>
+  </si>
+  <si>
+    <t>Sân chơi</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>bể bơi</t>
+  </si>
+  <si>
+    <t>Mostly</t>
+  </si>
+  <si>
+    <t>hầu như</t>
+  </si>
+  <si>
+    <t>Everywhere</t>
+  </si>
+  <si>
+    <t>khắp mọi nơi</t>
+  </si>
+  <si>
+    <t>In the city 2</t>
+  </si>
+  <si>
+    <t>Traffic noise</t>
+  </si>
+  <si>
+    <t>tiếng ồn giao thông</t>
+  </si>
+  <si>
+    <t>air quality</t>
+  </si>
+  <si>
+    <t>chất lượng không khí</t>
+  </si>
+  <si>
+    <t>khiến ai đó phát điên</t>
+  </si>
+  <si>
+    <t>traffic jam</t>
+  </si>
+  <si>
+    <t>tắt đường</t>
+  </si>
+  <si>
+    <t>drive recklessly</t>
+  </si>
+  <si>
+    <t>lái xe ẩu</t>
+  </si>
+  <si>
+    <t>tire someone out</t>
+  </si>
+  <si>
+    <t>khiến ai đó mệt lử</t>
+  </si>
+  <si>
+    <t>House &amp; neighbourhood 1</t>
+  </si>
+  <si>
+    <t>Move into a flat</t>
+  </si>
+  <si>
+    <t>chuyển vào một căn hộ</t>
+  </si>
+  <si>
+    <t>be fully furnished</t>
+  </si>
+  <si>
+    <t>có đầy đủ đồ đạt</t>
+  </si>
+  <si>
+    <t>modern conveniences</t>
+  </si>
+  <si>
+    <t>các tiện nghi hiện đại</t>
+  </si>
+  <si>
+    <t>be within walking distance of</t>
+  </si>
+  <si>
+    <t>đủ gần để đi bộ đến đâu</t>
+  </si>
+  <si>
+    <t>a housewarming party</t>
+  </si>
+  <si>
+    <t>bữa tiệc tân gia</t>
+  </si>
+  <si>
+    <t>khung cảnh nhìn từ</t>
+  </si>
+  <si>
+    <t>House &amp; Neighbourhood 2</t>
+  </si>
+  <si>
+    <t>shopping small</t>
+  </si>
+  <si>
+    <t>trung tâm thương mại</t>
+  </si>
+  <si>
+    <t>grocery store</t>
+  </si>
+  <si>
+    <t>cửa hàng tạp hóa</t>
+  </si>
+  <si>
+    <t>construction site</t>
+  </si>
+  <si>
+    <t>công trường xây dựng</t>
+  </si>
+  <si>
+    <t>convenience store</t>
+  </si>
+  <si>
+    <t>cửa hàng tiện ích</t>
+  </si>
+  <si>
+    <t>bulletin board</t>
+  </si>
+  <si>
+    <t>bảng tin</t>
+  </si>
+  <si>
+    <t>be based in an area</t>
+  </si>
+  <si>
+    <t>sống ở một khu vực</t>
+  </si>
+  <si>
+    <t>hn1500u010</t>
+  </si>
+  <si>
+    <t>drive someone insane</t>
+  </si>
+  <si>
+    <t>the view from</t>
+  </si>
+  <si>
+    <t>Beautifully</t>
+  </si>
+  <si>
+    <t>tài sản</t>
   </si>
 </sst>
 </file>
@@ -1257,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6958EE6-76A2-4EF8-9BE8-4824894762F1}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,18 +2968,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1312,16 +3007,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
@@ -1332,10 +3027,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -1344,7 +3039,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,10 +3047,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -1372,10 +3067,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -1384,7 +3079,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1392,19 +3087,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1412,19 +3107,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,19 +3127,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1452,19 +3147,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1472,19 +3167,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1492,19 +3187,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1512,19 +3207,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,19 +3227,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,19 +3247,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1572,19 +3267,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1592,19 +3287,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,19 +3307,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1632,19 +3327,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1652,19 +3347,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,6 +3425,483 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C266EF41-0B54-4252-B652-591E9B2D5CA8}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>735</v>
+      </c>
+      <c r="C5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>737</v>
+      </c>
+      <c r="C6" t="s">
+        <v>738</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C8" t="s">
+        <v>742</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>745</v>
+      </c>
+      <c r="C10" t="s">
+        <v>746</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>747</v>
+      </c>
+      <c r="C11" t="s">
+        <v>748</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>749</v>
+      </c>
+      <c r="C12" t="s">
+        <v>750</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>751</v>
+      </c>
+      <c r="C13" t="s">
+        <v>752</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C14" t="s">
+        <v>754</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>755</v>
+      </c>
+      <c r="C15" t="s">
+        <v>756</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>757</v>
+      </c>
+      <c r="C16" t="s">
+        <v>758</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>759</v>
+      </c>
+      <c r="C17" t="s">
+        <v>760</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>761</v>
+      </c>
+      <c r="C18" t="s">
+        <v>762</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>763</v>
+      </c>
+      <c r="C19" t="s">
+        <v>764</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>765</v>
+      </c>
+      <c r="C20" t="s">
+        <v>766</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>767</v>
+      </c>
+      <c r="C21" t="s">
+        <v>768</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>769</v>
+      </c>
+      <c r="C22" t="s">
+        <v>823</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>770</v>
+      </c>
+      <c r="C23" t="s">
+        <v>771</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>772</v>
+      </c>
+      <c r="C24" t="s">
+        <v>773</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>774</v>
+      </c>
+      <c r="C25" t="s">
+        <v>775</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>776</v>
+      </c>
+      <c r="C26" t="s">
+        <v>777</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>778</v>
+      </c>
+      <c r="C27" t="s">
+        <v>779</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>780</v>
+      </c>
+      <c r="C28" t="s">
+        <v>781</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>807</v>
+      </c>
+      <c r="C29" t="s">
+        <v>808</v>
+      </c>
+      <c r="D29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>809</v>
+      </c>
+      <c r="C30" t="s">
+        <v>810</v>
+      </c>
+      <c r="D30" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>811</v>
+      </c>
+      <c r="C31" t="s">
+        <v>812</v>
+      </c>
+      <c r="D31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>813</v>
+      </c>
+      <c r="C32" t="s">
+        <v>814</v>
+      </c>
+      <c r="D32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>815</v>
+      </c>
+      <c r="C33" t="s">
+        <v>816</v>
+      </c>
+      <c r="D33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>817</v>
+      </c>
+      <c r="C34" t="s">
+        <v>818</v>
+      </c>
+      <c r="D34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1738,7 +3910,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,18 +3925,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,19 +3964,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1812,19 +3984,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1832,19 +4004,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,19 +4024,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,19 +4044,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1892,19 +4064,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1912,19 +4084,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1932,19 +4104,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1952,19 +4124,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1972,19 +4144,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1992,19 +4164,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2012,19 +4184,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,19 +4204,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,19 +4224,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2072,19 +4244,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2092,19 +4264,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2112,19 +4284,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,19 +4304,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2152,19 +4324,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,19 +4344,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,19 +4364,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2212,19 +4384,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2232,19 +4404,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2252,19 +4424,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2276,8 +4448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED2825D-17E3-4C0C-A922-E2576C4DBB39}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,18 +4464,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,23 +4499,1222 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB610C9-811D-406A-85AD-40DEB17E64C9}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E714A74B-F8C9-4CDC-8F96-B59AC9004B67}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>402</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>403</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>471</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2351,19 +5722,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>405</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>472</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2371,19 +5742,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>406</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>407</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>408</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>409</v>
       </c>
       <c r="F7" t="s">
-        <v>236</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2391,19 +5762,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>410</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>411</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>412</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,19 +5782,19 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>413</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>414</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>408</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>415</v>
       </c>
       <c r="F9" t="s">
-        <v>238</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,19 +5802,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>417</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>451</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,19 +5822,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>418</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>419</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>452</v>
       </c>
       <c r="F11" t="s">
-        <v>240</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,19 +5842,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>420</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>421</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,19 +5862,19 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>423</v>
       </c>
       <c r="C13" t="s">
-        <v>217</v>
+        <v>424</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>475</v>
       </c>
       <c r="F13" t="s">
-        <v>242</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2511,19 +5882,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>425</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>426</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>427</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,19 +5902,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>428</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>429</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>430</v>
       </c>
       <c r="F15" t="s">
-        <v>244</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,19 +5922,19 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>431</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>433</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2571,19 +5942,19 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>196</v>
+        <v>434</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>435</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>267</v>
+        <v>436</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,19 +5962,19 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>438</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>477</v>
       </c>
       <c r="F18" t="s">
-        <v>247</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,19 +5982,19 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>439</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>440</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>441</v>
       </c>
       <c r="F19" t="s">
-        <v>248</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,19 +6002,19 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>442</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>443</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>444</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,19 +6022,19 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>446</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>447</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2671,19 +6042,19 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>448</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>450</v>
       </c>
       <c r="F22" t="s">
-        <v>251</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2691,19 +6062,19 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>453</v>
       </c>
       <c r="C23" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>455</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2711,19 +6082,19 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>456</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>457</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>274</v>
+        <v>458</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2731,19 +6102,19 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>459</v>
       </c>
       <c r="C25" t="s">
-        <v>229</v>
+        <v>460</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>275</v>
+        <v>461</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2751,19 +6122,19 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>462</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>463</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>464</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2771,19 +6142,19 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>465</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>466</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>277</v>
+        <v>467</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2791,19 +6162,2014 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>468</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>469</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>470</v>
+      </c>
+      <c r="F28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>501</v>
+      </c>
+      <c r="C30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D30" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C31" t="s">
+        <v>508</v>
+      </c>
+      <c r="D31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>503</v>
+      </c>
+      <c r="C32" t="s">
+        <v>511</v>
+      </c>
+      <c r="D32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>504</v>
+      </c>
+      <c r="C33" t="s">
+        <v>510</v>
+      </c>
+      <c r="D33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>505</v>
+      </c>
+      <c r="C34" t="s">
+        <v>509</v>
+      </c>
+      <c r="D34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729307CB-6F53-4EED-A69C-6BDBA9C94BFE}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C8" t="s">
+        <v>521</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C9" t="s">
+        <v>523</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>530</v>
+      </c>
+      <c r="C13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C14" t="s">
+        <v>533</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>534</v>
+      </c>
+      <c r="C15" t="s">
+        <v>535</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C16" t="s">
+        <v>537</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>538</v>
+      </c>
+      <c r="C17" t="s">
+        <v>539</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>540</v>
+      </c>
+      <c r="C18" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>542</v>
+      </c>
+      <c r="C19" t="s">
+        <v>543</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>544</v>
+      </c>
+      <c r="C20" t="s">
+        <v>545</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>546</v>
+      </c>
+      <c r="C21" t="s">
+        <v>547</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>548</v>
+      </c>
+      <c r="C22" t="s">
+        <v>549</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>550</v>
+      </c>
+      <c r="C23" t="s">
+        <v>551</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>552</v>
+      </c>
+      <c r="C24" t="s">
+        <v>553</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>554</v>
+      </c>
+      <c r="C25" t="s">
+        <v>555</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>556</v>
+      </c>
+      <c r="C26" t="s">
+        <v>557</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>558</v>
+      </c>
+      <c r="C27" t="s">
+        <v>559</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>560</v>
+      </c>
+      <c r="C28" t="s">
+        <v>561</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" t="s">
-        <v>257</v>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>564</v>
+      </c>
+      <c r="C29" t="s">
+        <v>570</v>
+      </c>
+      <c r="D29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>565</v>
+      </c>
+      <c r="C30" t="s">
+        <v>571</v>
+      </c>
+      <c r="D30" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>566</v>
+      </c>
+      <c r="C31" t="s">
+        <v>572</v>
+      </c>
+      <c r="D31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>567</v>
+      </c>
+      <c r="C32" t="s">
+        <v>573</v>
+      </c>
+      <c r="D32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>568</v>
+      </c>
+      <c r="C33" t="s">
+        <v>574</v>
+      </c>
+      <c r="D33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>569</v>
+      </c>
+      <c r="C34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4583B622-048F-4283-88D7-3E969BE218A8}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" t="s">
+        <v>585</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C10" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>588</v>
+      </c>
+      <c r="C11" t="s">
+        <v>589</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>637</v>
+      </c>
+      <c r="C12" t="s">
+        <v>590</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>591</v>
+      </c>
+      <c r="C13" t="s">
+        <v>592</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C14" t="s">
+        <v>594</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>595</v>
+      </c>
+      <c r="C15" t="s">
+        <v>596</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C16" t="s">
+        <v>598</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>599</v>
+      </c>
+      <c r="C17" t="s">
+        <v>600</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>601</v>
+      </c>
+      <c r="C18" t="s">
+        <v>602</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>603</v>
+      </c>
+      <c r="C19" t="s">
+        <v>604</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>605</v>
+      </c>
+      <c r="C20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" t="s">
+        <v>608</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>609</v>
+      </c>
+      <c r="C22" t="s">
+        <v>610</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>611</v>
+      </c>
+      <c r="C23" t="s">
+        <v>612</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>613</v>
+      </c>
+      <c r="C24" t="s">
+        <v>614</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>615</v>
+      </c>
+      <c r="C25" t="s">
+        <v>616</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>617</v>
+      </c>
+      <c r="C26" t="s">
+        <v>618</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>619</v>
+      </c>
+      <c r="C27" t="s">
+        <v>620</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>621</v>
+      </c>
+      <c r="C28" t="s">
+        <v>622</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>625</v>
+      </c>
+      <c r="C29" t="s">
+        <v>626</v>
+      </c>
+      <c r="D29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>627</v>
+      </c>
+      <c r="C30" t="s">
+        <v>628</v>
+      </c>
+      <c r="D30" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>629</v>
+      </c>
+      <c r="C31" t="s">
+        <v>630</v>
+      </c>
+      <c r="D31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>631</v>
+      </c>
+      <c r="C32" t="s">
+        <v>632</v>
+      </c>
+      <c r="D32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>633</v>
+      </c>
+      <c r="C33" t="s">
+        <v>634</v>
+      </c>
+      <c r="D33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>635</v>
+      </c>
+      <c r="C34" t="s">
+        <v>636</v>
+      </c>
+      <c r="D34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59434396-9F6D-4FAD-93E0-015B1482D004}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C7" t="s">
+        <v>644</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>645</v>
+      </c>
+      <c r="C8" t="s">
+        <v>646</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>649</v>
+      </c>
+      <c r="C10" t="s">
+        <v>650</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C11" t="s">
+        <v>652</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>653</v>
+      </c>
+      <c r="C12" t="s">
+        <v>654</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>655</v>
+      </c>
+      <c r="C13" t="s">
+        <v>656</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C14" t="s">
+        <v>658</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>659</v>
+      </c>
+      <c r="C15" t="s">
+        <v>660</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>661</v>
+      </c>
+      <c r="C16" t="s">
+        <v>662</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>663</v>
+      </c>
+      <c r="C17" t="s">
+        <v>664</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>665</v>
+      </c>
+      <c r="C18" t="s">
+        <v>666</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>667</v>
+      </c>
+      <c r="C19" t="s">
+        <v>668</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>669</v>
+      </c>
+      <c r="C20" t="s">
+        <v>670</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>671</v>
+      </c>
+      <c r="C21" t="s">
+        <v>672</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>673</v>
+      </c>
+      <c r="C22" t="s">
+        <v>674</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>675</v>
+      </c>
+      <c r="C23" t="s">
+        <v>676</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>677</v>
+      </c>
+      <c r="C24" t="s">
+        <v>678</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>679</v>
+      </c>
+      <c r="C25" t="s">
+        <v>680</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>681</v>
+      </c>
+      <c r="C26" t="s">
+        <v>682</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>683</v>
+      </c>
+      <c r="C27" t="s">
+        <v>684</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>685</v>
+      </c>
+      <c r="C28" t="s">
+        <v>686</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>783</v>
+      </c>
+      <c r="C29" t="s">
+        <v>784</v>
+      </c>
+      <c r="D29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>785</v>
+      </c>
+      <c r="C30" t="s">
+        <v>786</v>
+      </c>
+      <c r="D30" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>820</v>
+      </c>
+      <c r="C31" t="s">
+        <v>787</v>
+      </c>
+      <c r="D31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>788</v>
+      </c>
+      <c r="C32" t="s">
+        <v>789</v>
+      </c>
+      <c r="D32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>790</v>
+      </c>
+      <c r="C33" t="s">
+        <v>791</v>
+      </c>
+      <c r="D33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>792</v>
+      </c>
+      <c r="C34" t="s">
+        <v>793</v>
+      </c>
+      <c r="D34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED1EBD8-3C6E-4E55-B527-DAB4D147D39C}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C5" t="s">
+        <v>689</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C7" t="s">
+        <v>693</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C8" t="s">
+        <v>695</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>822</v>
+      </c>
+      <c r="C9" t="s">
+        <v>696</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>697</v>
+      </c>
+      <c r="C10" t="s">
+        <v>698</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>699</v>
+      </c>
+      <c r="C11" t="s">
+        <v>700</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>701</v>
+      </c>
+      <c r="C12" t="s">
+        <v>702</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>705</v>
+      </c>
+      <c r="C14" t="s">
+        <v>706</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>707</v>
+      </c>
+      <c r="C15" t="s">
+        <v>708</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>709</v>
+      </c>
+      <c r="C16" t="s">
+        <v>710</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>711</v>
+      </c>
+      <c r="C17" t="s">
+        <v>712</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>713</v>
+      </c>
+      <c r="C18" t="s">
+        <v>714</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>715</v>
+      </c>
+      <c r="C19" t="s">
+        <v>716</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>717</v>
+      </c>
+      <c r="C20" t="s">
+        <v>718</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>719</v>
+      </c>
+      <c r="C21" t="s">
+        <v>720</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>721</v>
+      </c>
+      <c r="C22" t="s">
+        <v>722</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>723</v>
+      </c>
+      <c r="C23" t="s">
+        <v>724</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>725</v>
+      </c>
+      <c r="C24" t="s">
+        <v>726</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C25" t="s">
+        <v>728</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>729</v>
+      </c>
+      <c r="C26" t="s">
+        <v>730</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>731</v>
+      </c>
+      <c r="C27" t="s">
+        <v>732</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>733</v>
+      </c>
+      <c r="C28" t="s">
+        <v>734</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>795</v>
+      </c>
+      <c r="C29" t="s">
+        <v>796</v>
+      </c>
+      <c r="D29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>797</v>
+      </c>
+      <c r="C30" t="s">
+        <v>798</v>
+      </c>
+      <c r="D30" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>799</v>
+      </c>
+      <c r="C31" t="s">
+        <v>800</v>
+      </c>
+      <c r="D31" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>801</v>
+      </c>
+      <c r="C32" t="s">
+        <v>802</v>
+      </c>
+      <c r="D32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>803</v>
+      </c>
+      <c r="C33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D33" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>821</v>
+      </c>
+      <c r="C34" t="s">
+        <v>805</v>
+      </c>
+      <c r="D34" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
